--- a/food_groups/spices_and_herbs.xlsx
+++ b/food_groups/spices_and_herbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A951CEB7-81EA-4CE9-A2CB-2EB3262BBF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDAFD6E-0C97-4222-840B-B02B6EEDEDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6E98DC84-EB56-4361-BD39-5B019FC0DE0A}"/>
   </bookViews>
@@ -33,27 +33,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>lactose-free</t>
-  </si>
-  <si>
-    <t>vegetarian</t>
-  </si>
-  <si>
-    <t>gluten-free</t>
+    <t>coriander</t>
+  </si>
+  <si>
+    <t>mexican</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>cumin</t>
+  </si>
+  <si>
+    <t>oregano</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>basil</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>turmeric</t>
+  </si>
+  <si>
+    <t>cardamom</t>
+  </si>
+  <si>
+    <t>allspice</t>
+  </si>
+  <si>
+    <t>cayenne pepper</t>
+  </si>
+  <si>
+    <t>ras el hanout</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>herbes de province</t>
+  </si>
+  <si>
+    <t>rosemary</t>
+  </si>
+  <si>
+    <t>bay leaves</t>
+  </si>
+  <si>
+    <t>chili powder</t>
+  </si>
+  <si>
+    <t>thyme</t>
+  </si>
+  <si>
+    <t>nutmeg</t>
+  </si>
+  <si>
+    <t>cajun seasoning</t>
+  </si>
+  <si>
+    <t>za'atar</t>
+  </si>
+  <si>
+    <t>garam masala</t>
+  </si>
+  <si>
+    <t>paprika</t>
+  </si>
+  <si>
+    <t>asian</t>
   </si>
 </sst>
 </file>
@@ -405,52 +465,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D461AB2-3A13-47AC-BD1A-14974C72A3BF}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
